--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1073.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1073.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.060676418318524</v>
+        <v>1.062847846889952</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.373715277722761</v>
+        <v>1.380394347563969</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.5617519116257489</v>
+        <v>0.5609432194188871</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9486132016154466</v>
+        <v>0.9542162728571992</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.5617519116257489</v>
+        <v>0.5609432194188871</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9486132016154466</v>
+        <v>0.9542162728571992</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.5617519116257489</v>
+        <v>0.5609432194188871</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9486132016154466</v>
+        <v>0.9542162728571992</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9345845663433937</v>
+        <v>0.9402201222648908</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9345845663433937</v>
+        <v>0.9402201222648908</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.144068927699249</v>
+        <v>1.147519739259782</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.01872551508641735</v>
+        <v>0.01769150148097517</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.047568557758032</v>
+        <v>1.05046379585327</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.744187521433746</v>
+        <v>0.7498276294848106</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9486132016154466</v>
+        <v>0.9542162728571992</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9573346407647769</v>
+        <v>0.9628083381966366</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9660560799141074</v>
+        <v>0.9714004035360738</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9345845663433937</v>
+        <v>0.9402201222648908</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8477067107829931</v>
+        <v>0.8543099095968406</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.02496735344855646</v>
+        <v>0.02358866864130022</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.034460697197539</v>
+        <v>1.038079744816587</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.7216694468492084</v>
+        <v>0.7272723914569662</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9486132016154466</v>
+        <v>0.9542162728571992</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8803987679554257</v>
+        <v>0.8866908276849177</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.8121843342954047</v>
+        <v>0.819165382512636</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9345845663433937</v>
+        <v>0.9402201222648908</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.812184334295405</v>
+        <v>0.8191653825126349</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.03120919181069557</v>
+        <v>0.02948583580162528</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.024246130909382</v>
+        <v>1.028633376109416</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.03607327099553224</v>
+        <v>0.03398410661456375</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>1.001658649471136</v>
+        <v>1.006624270680816</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04682921453755443</v>
+        <v>0.04446463300913549</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9660560799141074</v>
+        <v>0.9714004035360738</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.06378281908852033</v>
+        <v>0.06123790307806014</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9218573816106826</v>
+        <v>0.9274485284033592</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.08482981828062736</v>
+        <v>0.08216736742697184</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8690218067930617</v>
+        <v>0.8747272723747801</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.9700114818196041</v>
+        <v>0.9730754910409407</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1099896158128278</v>
+        <v>0.1072727274405809</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.8091760924111761</v>
+        <v>0.8148883293130286</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1384875750422972</v>
+        <v>0.1357674622318912</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.744187521433746</v>
+        <v>0.7498276294848106</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>19.40022963639208</v>
+        <v>19.46150982081881</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1694345136029781</v>
+        <v>0.1667487478643759</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.7216694468492084</v>
+        <v>0.7272723914569662</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.920011481819604</v>
+        <v>0.9230754910409407</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1170344692901084</v>
+        <v>0.1105718842560948</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1170344692901084</v>
+        <v>0.1105718842560948</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.9500000000000001</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1170344692901084</v>
+        <v>0.1105718842560948</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2340689385802168</v>
+        <v>0.2211437685121896</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.2340689385802168</v>
+        <v>0.2211437685121896</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.4681378771604336</v>
+        <v>0.4422875370243792</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>0.3648059388627504</v>
+        <v>0.3373703109703853</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>0.832943816023184</v>
+        <v>0.7796578479947645</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>1.613391531303328</v>
+        <v>1.572078959185762</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>2.446335347326512</v>
+        <v>2.351736807180527</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>5.08608136528977</v>
+        <v>5.031981020677394</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>7.532416712616282</v>
+        <v>7.383717827857921</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>12.62819951526421</v>
+        <v>12.55767860934702</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>20.1606162278805</v>
+        <v>19.94139643720494</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>30.19175703864054</v>
+        <v>30.1264320163309</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>50.35237326652103</v>
+        <v>50.06782845353585</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.39510215072647</v>
+        <v>68.38736349914473</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>118.7474754172475</v>
+        <v>118.4551919526806</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>148.5453050912686</v>
+        <v>148.7101710359267</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>267.2927805085161</v>
+        <v>267.1653629886072</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>77.2048271469863</v>
+        <v>77.33224466689518</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
